--- a/data/modules.xlsx
+++ b/data/modules.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/angelinaswinburne/Documents/vca/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B618529-9438-684C-BD75-37F5A7F15C23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9CDAA30-B7D4-0E45-BB1C-5BE49FB8D572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2680" yWindow="500" windowWidth="26600" windowHeight="15600" activeTab="2" xr2:uid="{930DA7D1-8742-EF49-ABBE-E917A430AA45}"/>
+    <workbookView xWindow="2200" yWindow="500" windowWidth="26600" windowHeight="15600" xr2:uid="{930DA7D1-8742-EF49-ABBE-E917A430AA45}"/>
   </bookViews>
   <sheets>
     <sheet name="modules" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="190">
   <si>
     <t>id</t>
   </si>
@@ -601,6 +601,15 @@
   </si>
   <si>
     <t>sqo38</t>
+  </si>
+  <si>
+    <t>Market Creation and Organisational Change</t>
+  </si>
+  <si>
+    <t>mcoc</t>
+  </si>
+  <si>
+    <t>m2m3</t>
   </si>
 </sst>
 </file>
@@ -1021,16 +1030,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE7711A3-4B0F-C24A-9F95-51076DF360EF}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="9"/>
-    <col min="2" max="2" width="19.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.6640625" style="9" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="10.83203125" style="9"/>
   </cols>
   <sheetData>
@@ -1076,6 +1085,17 @@
       </c>
       <c r="C4" s="9" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -1088,7 +1108,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView zoomScale="75" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1251,7 +1271,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AD64E17-AF1B-5C4E-BE32-AC2E3BF18558}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>

--- a/data/modules.xlsx
+++ b/data/modules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/angelinaswinburne/Documents/vca/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9CDAA30-B7D4-0E45-BB1C-5BE49FB8D572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5716BE1F-897B-6346-8977-B59A1CC38805}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2200" yWindow="500" windowWidth="26600" windowHeight="15600" xr2:uid="{930DA7D1-8742-EF49-ABBE-E917A430AA45}"/>
   </bookViews>
@@ -1033,7 +1033,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1107,7 +1107,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8F8B334-3C81-6E43-BD52-3A93C4CB6FC7}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView zoomScale="75" workbookViewId="0">
+    <sheetView zoomScale="88" workbookViewId="0">
       <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>

--- a/data/modules.xlsx
+++ b/data/modules.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/angelinaswinburne/Documents/vca/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5716BE1F-897B-6346-8977-B59A1CC38805}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31595B67-B17C-BC47-BC7B-C3F83FA43457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2200" yWindow="500" windowWidth="26600" windowHeight="15600" xr2:uid="{930DA7D1-8742-EF49-ABBE-E917A430AA45}"/>
+    <workbookView xWindow="2200" yWindow="500" windowWidth="26600" windowHeight="15600" activeTab="3" xr2:uid="{930DA7D1-8742-EF49-ABBE-E917A430AA45}"/>
   </bookViews>
   <sheets>
     <sheet name="modules" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="190">
   <si>
     <t>id</t>
   </si>
@@ -1032,8 +1032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE7711A3-4B0F-C24A-9F95-51076DF360EF}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1108,7 +1108,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView zoomScale="88" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1272,7 +1272,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1555,10 +1555,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76E0D847-C1DB-9D46-AE22-D0DAA262BF7A}">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1566,356 +1566,452 @@
     <col min="1" max="16384" width="10.83203125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="D1" s="8"/>
-    </row>
-    <row r="2" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="E1" s="8"/>
+    </row>
+    <row r="2" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="C2" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="C3" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="C4" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="C5" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="C6" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="C7" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="C8" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B9" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="C9" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="C10" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B11" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="C11" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B12" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="C12" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B13" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="C13" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B14" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="C14" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B15" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="C15" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="D15" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B16" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="C16" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="D16" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B17" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="C17" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="D17" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B18" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="C18" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="D18" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B19" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="C19" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="D19" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B20" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="C20" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="D20" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B21" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="C21" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="D21" s="10" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B22" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="C22" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="D22" s="10" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B23" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="C23" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B24" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="C24" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="D24" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B25" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="C25" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="D25" s="10" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B26" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="C26" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B27" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="C27" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="D27" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B28" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="C28" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="D28" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B29" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="C29" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="D29" s="10" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B30" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="C30" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="D30" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B31" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="C31" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="D31" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B32" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="C32" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="D32" s="2" t="s">
         <v>60</v>
       </c>
     </row>
